--- a/docs/【C班】テーブル定義書.xlsx
+++ b/docs/【C班】テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64861BF4-D6BB-45E3-AB11-BC7770BA81E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E955C9DA-FE77-4EBA-9A88-8ACEABDF9DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,163 @@
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="目次・概要" sheetId="2" r:id="rId2"/>
     <sheet name="TICKET" sheetId="7" r:id="rId3"/>
-    <sheet name="USER" sheetId="8" r:id="rId4"/>
+    <sheet name="USERS" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>koyama</author>
+  </authors>
+  <commentList>
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{7EF1A49F-FD07-4291-AEEF-E8B6A34848A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>koyama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+10文字折り返し</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{5179F84C-1F11-4C83-B79C-0305D200EAB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>koyama:
+（仮）
+一目でわかるようにチケットに表示する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{89826DD4-DB02-4CF6-9A01-1B7C77B07EA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>koyama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+重要度「高」赤
+重要度「中」黄色
+重要度「低」青
+チケットにラベルつける</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{A3D3B562-B87B-4671-A69B-8302DC75B7F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>koyama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+進行度で枠を分ける
+0%→未実施
+1~99%→進行中
+100%→完了
+（微妙かも）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>koyama</author>
+  </authors>
+  <commentList>
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{C550DD8E-976A-49DD-9C58-C4E494A92392}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>koyama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+ユーザー作成時に秘密のワードを入力させる
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -441,14 +590,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>USER</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CONSTRAINT PK_TICKET PRIMARY KEY DEFAULT TICKET_Sequence.NEXTVAL</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -898,10 +1039,6 @@
   </si>
   <si>
     <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CONSTRAINT PK_USER PRIMARY KEY DEFAULT USER_Sequence.NEXTVAL</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1226,10 +1363,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>FOREIGN KEY (ticket_id) REFERENCES TICKET (ticket_id) ON DELETE CASCADE</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1326,16 +1459,29 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>いらないかも</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>CREATE TABLE TICKET (
-    ticket_id NUMBER(9,0) PRIMARY KEY DEFAULT TICKET_Sequence.NEXTVAL,
+    <t>USERS</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRAINT PK_TICKET PRIMARY KEY </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CONSTRAINT PK_USER PRIMARY KEY</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE SEQUENCE TICKET_Sequence
+START WITH 1
+INCREMENT BY 1
+NOCACHE
+NOCYCLE;
+CREATE TABLE TICKET (
+    ticket_id NUMBER(9,0) PRIMARY KEY,
     user_id NUMBER(4,0) NOT NULL,
-    title VARCHAR2(60) NOT NULL CONSTRAINT NN_TICKET_TITLE,
-    deadline DATE NOT NULL CONSTRAINT NN_TICKET_DEADLINE,
+    title VARCHAR2(60) CONSTRAINT NN_TICKET_TITLE NOT NULL,
+    deadline DATE CONSTRAINT NN_TICKET_DEADLINE NOT NULL,
     assigned_person VARCHAR2(10),
     importance VARCHAR2(2) NOT NULL CONSTRAINT CK_TICKET_IMPORTANCE CHECK (importance IN ('</t>
     </r>
@@ -1344,7 +1490,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
@@ -1366,7 +1512,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
@@ -1388,7 +1534,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
@@ -1406,14 +1552,1007 @@
       <t>')),
     progress NUMBER(3,0) DEFAULT 0 NOT NULL CONSTRAINT CK_TICKET_PROGRESS CHECK (progress BETWEEN 0 AND 100),
     category VARCHAR2(20),
-    CONSTRAINT FK_TICKET_USER FOREIGN KEY (user_id) REFERENCES USER(user_id) ON DELETE CASCADE
+    CONSTRAINT FK_TICKET_USER FOREIGN KEY (user_id) REFERENCES USERS(user_id) ON DELETE CASCADE
 );</t>
     </r>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>CREATE TABLE USER (
-    user_id NUMBER(4,0) PRIMARY KEY DEFAULT USER_Sequence.NEXTVAL,
+    <t>user_name</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー名</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーを表す一意な名前</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>有効データ</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>議題のチェックリスト作成</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>齋藤</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>低</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文章作成</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>過去期限、重要度「低」、進行度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>確認</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シンコウド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ミーティングの議題整理</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ギダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>田久保</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>タクボ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会議準備</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>直近の期限、重要度「中」、進行度50％確認</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シンコウド</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロジェクトの提案書の作成（担当者再アサインの可能性あり。）</t>
+    <rPh sb="7" eb="10">
+      <t>テイアンショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>田中</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顧客調査</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>未来の期限、重要度「高」進行度100%、タイトル30文字制限確認</t>
+    <rPh sb="0" eb="2">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シンコウド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>週次業務</t>
+    <rPh sb="0" eb="4">
+      <t>シュウジギョウム</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>田久保</t>
+    <rPh sb="0" eb="3">
+      <t>タクボ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>定例業務</t>
+    <rPh sb="0" eb="4">
+      <t>テイレイギョウム</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>週次定例会議</t>
+    <rPh sb="0" eb="2">
+      <t>シュウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイレイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メンバ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>会議</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>会議</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Unit Test</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="1">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム調査</t>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>担当者、カテゴリ確認</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>夕飯のおつかい</t>
+    <rPh sb="0" eb="2">
+      <t>ユウハン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パパ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ゴミ出し</t>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ママ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>家事</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>チケットIDのを許可しない</t>
+    <rPh sb="8" eb="10">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザーIDのを許可しない</t>
+    <rPh sb="8" eb="10">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロジェクトの提案書の作成（担当者再アサインの可能性あります）</t>
+    <rPh sb="7" eb="10">
+      <t>テイアンショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイトルの文字制限</t>
+    <rPh sb="5" eb="9">
+      <t>モジセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>重要度のチェック制約</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>進行度のを許可しない</t>
+    <rPh sb="0" eb="3">
+      <t>シンコウド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>チケットIDの重複を許可しない</t>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>備考２</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>齋藤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>創己</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Abc12345&amp;!</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NewAbc123!</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>思い出</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>田久保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>雅也</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Xy7890&amp;@</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Xy8901@&amp;</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未来の夢</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>田中 一郎</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチロウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>StrongP@ssw0rd1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>WeakP@ssw0rd1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家族</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Test User</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TestUser123!</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>古いパスワードのNullを許可する</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Error User1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>パスワードの有効性確認</t>
+    <rPh sb="6" eb="11">
+      <t>ユウコウセイカクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>大文字・特殊文字が含まれていない。</t>
+    </r>
+  </si>
+  <si>
+    <t>Error User2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>AAAAaaaa1111!</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>同じ文字が連続している。</t>
+    </r>
+  </si>
+  <si>
+    <t>Error User3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Short1!</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>文字未満。</t>
+    </r>
+  </si>
+  <si>
+    <t>Error User4</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>エラー理由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>数字のみで、大文字、小文字、特殊文字が含まれていない。</t>
+    </r>
+  </si>
+  <si>
+    <t>Error User5</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ErrorUser123!</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を許可しない</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザー名のNULLを許可しない</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Error User6</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>秘密のワードのNULLを許可しない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザーIDの重複を許可しない</t>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CREATE SEQUENCE USERS_Sequence
+START WITH 1
+INCREMENT BY 1
+NOCACHE
+NOCYCLE;
+CREATE TABLE USERS (
+    user_id NUMBER(4,0) PRIMARY KEY,
+    user_name VARCHAR2(30) NOT NULL ,
     password VARCHAR2(64) NOT NULL CONSTRAINT CK_USER_PASSWORD CHECK (
         LENGTH(password) BETWEEN 8 AND 64
         AND REGEXP_LIKE(password, '[A-Z]')
@@ -1431,7 +2570,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1553,14 +2695,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1619,8 +2753,79 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1637,6 +2842,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1861,10 +3078,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1899,6 +3117,66 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1949,78 +3227,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2241,12 +3485,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2258,103 +3502,103 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="4"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="4"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="4"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="4"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="4"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="4"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="4"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="4"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="4"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="4"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="4"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="4"/>
       <c r="H22" s="6" t="s">
         <v>1</v>
@@ -2364,7 +3608,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="4"/>
       <c r="H23" s="6" t="s">
         <v>2</v>
@@ -2374,27 +3618,27 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="4"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="4"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="4"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="4"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2423,11 +3667,11 @@
   </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="14"/>
     <col min="2" max="2" width="7.109375" style="14" customWidth="1"/>
@@ -2436,13 +3680,13 @@
     <col min="5" max="16384" width="12.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.75" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15" customHeight="1"/>
+    <row r="4" spans="2:16" ht="19.5" customHeight="1">
       <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2452,132 +3696,132 @@
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="K4" s="29" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="K4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-    </row>
-    <row r="5" spans="2:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="71"/>
+    </row>
+    <row r="5" spans="2:16" ht="36.6" customHeight="1">
       <c r="B5" s="16">
         <v>1</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="2:16" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="83"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+    </row>
+    <row r="6" spans="2:16" ht="84.6" customHeight="1">
       <c r="B6" s="16">
         <v>2</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="83"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="74"/>
+    </row>
+    <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="16">
         <v>3</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="74"/>
+    </row>
+    <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="16">
         <v>4</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="74"/>
+    </row>
+    <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="16">
         <v>5</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74"/>
+    </row>
+    <row r="10" spans="2:16" ht="33.75" customHeight="1">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
+    </row>
+    <row r="11" spans="2:16" ht="33.75" customHeight="1">
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+    </row>
+    <row r="12" spans="2:16" ht="33.75" customHeight="1"/>
+    <row r="13" spans="2:16" ht="33.75" customHeight="1"/>
+    <row r="14" spans="2:16" ht="33.75" customHeight="1"/>
+    <row r="15" spans="2:16" ht="33.75" customHeight="1"/>
+    <row r="16" spans="2:16" ht="33.75" customHeight="1"/>
+    <row r="17" ht="33.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="K4:P11"/>
@@ -2596,17 +3840,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DADF2-1404-4FB3-9FFB-C28EAD125E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DADF2-1404-4FB3-9FFB-C28EAD125E62}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:K29"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
     <col min="2" max="3" width="8.33203125" style="13" customWidth="1"/>
@@ -2621,466 +3865,1134 @@
     <col min="12" max="16384" width="12.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="1:11" ht="13.2">
+      <c r="B2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="52" t="s">
+    <row r="3" spans="1:11" ht="13.2">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="25">
         <v>45540</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.2">
+      <c r="B4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.2">
+      <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="69">
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.2">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.2">
+      <c r="B7" s="32">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="94"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.2">
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="69">
-        <v>2</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="68" t="s">
+      <c r="H8" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.2">
+      <c r="B9" s="32">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="85"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.2">
+      <c r="B10" s="32">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="85"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="32">
+        <v>6</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="81" t="s">
+      <c r="J11" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B12" s="35">
+        <v>7</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="82"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="69">
-        <v>3</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="69">
-        <v>4</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="71" t="s">
+      <c r="K12" s="92"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B13" s="34">
+        <v>8</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="69">
-        <v>5</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="69">
-        <v>6</v>
-      </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="75"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76">
-        <v>7</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73">
-        <v>8</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-    </row>
-    <row r="16" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I13" s="37"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.2">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-    </row>
-    <row r="29" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+    <row r="17" spans="2:13" ht="13.2">
+      <c r="B17" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+    </row>
+    <row r="29" spans="2:13" ht="84.6" customHeight="1">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B31" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="36" t="str">
+        <f>F6</f>
+        <v>チケットID</v>
+      </c>
+      <c r="D31" s="36" t="str">
+        <f>F7</f>
+        <v>ユーザーID</v>
+      </c>
+      <c r="E31" s="36" t="str">
+        <f>F8</f>
+        <v>タイトル</v>
+      </c>
+      <c r="F31" s="36" t="str">
+        <f>F9</f>
+        <v>期限</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36" t="str">
+        <f>F10</f>
+        <v>担当者</v>
+      </c>
+      <c r="I31" s="36" t="str">
+        <f>F11</f>
+        <v>重要度</v>
+      </c>
+      <c r="J31" s="36" t="str">
+        <f>F12</f>
+        <v>進行度</v>
+      </c>
+      <c r="K31" s="36" t="str">
+        <f>F13</f>
+        <v>カテゴリー</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B32" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="44">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="45">
+        <v>45544</v>
+      </c>
+      <c r="G32" s="45" t="str">
+        <f>TEXT(DATE(1900,1,1) + F32, "YYYY-MM-DD")</f>
+        <v>2024-09-10</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="36">
+        <v>100</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="43" t="str">
+        <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, " &amp; D32 &amp; ", '" &amp; E32 &amp; "', TO_DATE('" &amp; TEXT(G32, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H32), "NULL", "'" &amp; H32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I32), "NULL", "'" &amp; I32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J32), "NULL", J32) &amp; ", " &amp; IF(ISBLANK(K32), "NULL", "'" &amp; K32 &amp; "'") &amp; ");"</f>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, '議題のチェックリスト作成', TO_DATE('2024-09-10', 'YYYY-MM-DD'), '齋藤', '低', 100, '文章作成');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B33" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="44">
+        <v>2</v>
+      </c>
+      <c r="D33" s="36">
+        <v>1</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="45">
+        <v>45597</v>
+      </c>
+      <c r="G33" s="45" t="str">
+        <f t="shared" ref="G33:G47" si="0">TEXT(DATE(1900,1,1) + F33, "YYYY-MM-DD")</f>
+        <v>2024-11-02</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="36">
+        <v>50</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="43" t="str">
+        <f t="shared" ref="M33:M41" si="1" xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, " &amp; D33 &amp; ", '" &amp; E33 &amp; "', TO_DATE('" &amp; TEXT(G33, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H33), "NULL", "'" &amp; H33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I33), "NULL", "'" &amp; I33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J33), "NULL", J33) &amp; ", " &amp; IF(ISBLANK(K33), "NULL", "'" &amp; K33 &amp; "'") &amp; ");"</f>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, 'ミーティングの議題整理', TO_DATE('2024-11-02', 'YYYY-MM-DD'), '田久保', '中', 50, '会議準備');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B34" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="44">
+        <v>3</v>
+      </c>
+      <c r="D34" s="36">
+        <v>1</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="45">
+        <v>45689</v>
+      </c>
+      <c r="G34" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-02-02</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="36">
+        <v>0</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="M34" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, 'プロジェクトの提案書の作成（担当者再アサインの可能性あり。）', TO_DATE('2025-02-02', 'YYYY-MM-DD'), '田中', '高', 0, '顧客調査');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B35" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="44">
+        <v>4</v>
+      </c>
+      <c r="D35" s="46">
+        <v>1</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="45">
+        <v>45603</v>
+      </c>
+      <c r="G35" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-11-08</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="46">
+        <v>0</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, '週次業務', TO_DATE('2024-11-08', 'YYYY-MM-DD'), '田久保', '中', 0, '定例業務');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B36" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="44">
+        <v>5</v>
+      </c>
+      <c r="D36" s="46">
+        <v>1</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="45">
+        <v>45603</v>
+      </c>
+      <c r="G36" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-11-08</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="46">
+        <v>0</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, '週次定例会議', TO_DATE('2024-11-08', 'YYYY-MM-DD'), 'メンバ', '中', 0, '会議');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B37" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="44">
+        <v>6</v>
+      </c>
+      <c r="D37" s="46">
+        <v>2</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="45">
+        <v>45603</v>
+      </c>
+      <c r="G37" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-11-08</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="46">
+        <v>0</v>
+      </c>
+      <c r="K37" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 2, '週次定例会議', TO_DATE('2024-11-08', 'YYYY-MM-DD'), 'メンバ', '中', 0, '会議');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B38" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="44">
+        <v>7</v>
+      </c>
+      <c r="D38" s="46">
+        <v>2</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="45">
+        <v>45604</v>
+      </c>
+      <c r="G38" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-11-09</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J38" s="46">
+        <v>0</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 2, 'Unit Test', TO_DATE('2024-11-09', 'YYYY-MM-DD'), '齋藤', '高', 0, 'テスト');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B39" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="44">
+        <v>8</v>
+      </c>
+      <c r="D39" s="46">
+        <v>2</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="49">
+        <v>46296</v>
+      </c>
+      <c r="G39" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2026-10-02</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="46">
+        <v>0</v>
+      </c>
+      <c r="K39" s="43"/>
+      <c r="L39" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="M39" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 2, 'システム調査', TO_DATE('2026-10-02', 'YYYY-MM-DD'), NULL, '低', 0, NULL);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B40" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="44">
+        <v>9</v>
+      </c>
+      <c r="D40" s="46">
+        <v>3</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="49">
+        <v>45566</v>
+      </c>
+      <c r="G40" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-02</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="46">
+        <v>50</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 3, '夕飯のおつかい', TO_DATE('2024-10-02', 'YYYY-MM-DD'), 'パパ', '低', 50, NULL);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B41" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="44">
+        <v>10</v>
+      </c>
+      <c r="D41" s="46">
+        <v>3</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="49">
+        <v>45567</v>
+      </c>
+      <c r="G41" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-03</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 3, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B42" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="46">
+        <v>3</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="49">
+        <v>45567</v>
+      </c>
+      <c r="G42" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-03</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="46">
+        <v>0</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="M42" s="50" t="str">
+        <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C42&amp;", " &amp; IF(ISBLANK(D42), "NULL", D42) &amp; ", '" &amp; IF(ISBLANK(E42), "NULL", E42) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G42), "NULL", G42) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H42), "NULL", H42) &amp; "', '" &amp; IF(ISBLANK(I42), "NULL", I42) &amp; "', " &amp; IF(ISBLANK(J42), "NULL", J42) &amp; ", '" &amp; IF(ISBLANK(K42), "NULL", K42) &amp; "');"</f>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (null, 3, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B43" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="46">
+        <v>11</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="49">
+        <v>45567</v>
+      </c>
+      <c r="G43" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-03</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="M43" s="50" t="str">
+        <f t="shared" ref="M43:M47" si="2" xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C43&amp;", " &amp; IF(ISBLANK(D43), "NULL", D43) &amp; ", '" &amp; IF(ISBLANK(E43), "NULL", E43) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G43), "NULL", G43) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H43), "NULL", H43) &amp; "', '" &amp; IF(ISBLANK(I43), "NULL", I43) &amp; "', " &amp; IF(ISBLANK(J43), "NULL", J43) &amp; ", '" &amp; IF(ISBLANK(K43), "NULL", K43) &amp; "');"</f>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (11, NULL, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B44" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="36">
+        <v>12</v>
+      </c>
+      <c r="D44" s="36">
+        <v>1</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="45">
+        <v>45689</v>
+      </c>
+      <c r="G44" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-02-02</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J44" s="36">
+        <v>0</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L44" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (12, 1, 'プロジェクトの提案書の作成（担当者再アサインの可能性あります）', TO_DATE('2025-02-02', 'YYYY-MM-DD'), '田中', '高', 0, '顧客調査');</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B45" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="46">
+        <v>13</v>
+      </c>
+      <c r="D45" s="46">
+        <v>1</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="49">
+        <v>45567</v>
+      </c>
+      <c r="G45" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-03</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="46">
+        <v>0</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="M45" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (13, 1, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', 'LOW', 0, '家事');</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B46" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="46">
+        <v>14</v>
+      </c>
+      <c r="D46" s="46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="49">
+        <v>45567</v>
+      </c>
+      <c r="G46" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-03</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="46"/>
+      <c r="K46" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L46" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (14, 1, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', NULL, '家事');</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B47" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="46">
+        <v>1</v>
+      </c>
+      <c r="D47" s="46">
+        <v>1</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="49">
+        <v>45567</v>
+      </c>
+      <c r="G47" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-10-03</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="46">
+        <v>0</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="M47" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (1, 1, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -3088,31 +5000,26 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51C668E-1F81-4DD8-A39C-90B5BFBCF025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51C668E-1F81-4DD8-A39C-90B5BFBCF025}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
     <col min="2" max="3" width="8.33203125" style="13" customWidth="1"/>
@@ -3127,230 +5034,224 @@
     <col min="12" max="16384" width="12.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="1:12" ht="13.2">
+      <c r="B2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="52" t="s">
+    <row r="3" spans="1:12" ht="13.2">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="25">
+        <v>45540</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.2">
+      <c r="B4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.2">
+      <c r="B5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="97"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.2">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.2">
+      <c r="B7" s="20">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" ht="103.8" customHeight="1">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="54">
-        <v>45540</v>
-      </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="G8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="48"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
-        <v>1</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="H8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="K8" s="106"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.2">
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="97"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.2">
+      <c r="B10" s="20">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="49">
-        <v>2</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
-        <v>3</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="84"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="49">
-        <v>4</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
-        <v>5</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J10" s="103"/>
+      <c r="K10" s="97"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3362,178 +5263,516 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.2">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-    </row>
-    <row r="29" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+    <row r="17" spans="2:11" ht="13.2">
+      <c r="B17" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+    </row>
+    <row r="29" spans="2:11" ht="107.4" customHeight="1">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B32" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="51" t="str">
+        <f>F6</f>
+        <v>ユーザーID</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="51" t="str">
+        <f>F7</f>
+        <v>ユーザー名</v>
+      </c>
+      <c r="F32" s="37" t="str">
+        <f>F8</f>
+        <v>パスワード</v>
+      </c>
+      <c r="G32" s="37" t="str">
+        <f>F9</f>
+        <v>古いパスワード</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B33" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="13" t="str">
+        <f t="shared" ref="J33:J36" si="0">"INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '" &amp; D33 &amp; "', '" &amp; E33 &amp; "', " &amp; IF(F33="", "NULL", "'" &amp; F33 &amp; "'") &amp; ", '" &amp; G33 &amp; "');"</f>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '齋藤 創己', 'Abc12345&amp;!', 'NewAbc123!', '思い出');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B34" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="54">
+        <v>2</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '田久保 雅也', 'Xy7890&amp;@', 'Xy8901@&amp;', '未来の夢');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B35" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="54">
+        <v>3</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '田中 一郎', 'StrongP@ssw0rd1', 'WeakP@ssw0rd1', '家族');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B36" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="56">
+        <v>4</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="J36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, 'Test User', 'TestUser123!', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B37" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="43">
+        <v>5</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="57" t="str">
+        <f>"INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES ("&amp;C37&amp;", '" &amp; D37 &amp; "', '" &amp; E37 &amp; "', " &amp; IF(F37="", "NULL", "'" &amp; F37 &amp; "'") &amp; ", '" &amp; G37 &amp; "');"</f>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (5, 'Error User1', 'password123', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B38" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="43">
+        <v>6</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" s="57" t="str">
+        <f t="shared" ref="J38:J44" si="1">"INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES ("&amp;C38&amp;", '" &amp; D38 &amp; "', '" &amp; E38 &amp; "', " &amp; IF(F38="", "NULL", "'" &amp; F38 &amp; "'") &amp; ", '" &amp; G38 &amp; "');"</f>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (6, 'Error User2', 'AAAAaaaa1111!', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B39" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="36">
+        <v>7</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (7, 'Error User3', 'Short1!', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B40" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="36">
+        <v>8</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="58">
+        <v>12345678</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (8, 'Error User4', '12345678', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B41" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (, 'Error User5', 'ErrorUser123!', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B42" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="36">
+        <v>9</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (9, '', 'ErrorUser123!', NULL, 'テスト');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B43" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="36">
+        <v>10</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (10, 'Error User6', 'ErrorUser123!', NULL, '');</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B44" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="36">
+        <v>1</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (1, 'Error User6', 'ErrorUser123!', NULL, '');</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B17:K29"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -3542,7 +5781,14 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="F35" r:id="rId1" xr:uid="{67D12D0D-E20D-4B96-822C-E670B5E0FAC6}"/>
+    <hyperlink ref="F34" r:id="rId2" xr:uid="{4293EC08-7CDF-4F4D-8572-D6B94C9744C5}"/>
+    <hyperlink ref="E35" r:id="rId3" xr:uid="{6FFFC594-71AE-48DF-A2C8-FC5AA6FD5994}"/>
+    <hyperlink ref="E34" r:id="rId4" xr:uid="{76E907E3-662B-4597-90AA-B1D20C952B43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/docs/【C班】テーブル定義書.xlsx
+++ b/docs/【C班】テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E955C9DA-FE77-4EBA-9A88-8ACEABDF9DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DEC9F5-F6EC-43E3-9133-AB9B79A89E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -284,14 +284,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>NUMBER(4,0)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -521,72 +513,6 @@
   </si>
   <si>
     <t>NUMBER(9,0)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザーを識別する一意の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>となる。連番で配番される。</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>レンバン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハイバン</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1359,10 +1285,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>FOREIGN KEY (user_id) REFERENCES USER (user_id)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1471,93 +1393,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <r>
-      <t>CREATE SEQUENCE TICKET_Sequence
-START WITH 1
-INCREMENT BY 1
-NOCACHE
-NOCYCLE;
-CREATE TABLE TICKET (
-    ticket_id NUMBER(9,0) PRIMARY KEY,
-    user_id NUMBER(4,0) NOT NULL,
-    title VARCHAR2(60) CONSTRAINT NN_TICKET_TITLE NOT NULL,
-    deadline DATE CONSTRAINT NN_TICKET_DEADLINE NOT NULL,
-    assigned_person VARCHAR2(10),
-    importance VARCHAR2(2) NOT NULL CONSTRAINT CK_TICKET_IMPORTANCE CHECK (importance IN ('</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>低</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>高</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>')),
-    progress NUMBER(3,0) DEFAULT 0 NOT NULL CONSTRAINT CK_TICKET_PROGRESS CHECK (progress BETWEEN 0 AND 100),
-    category VARCHAR2(20),
-    CONSTRAINT FK_TICKET_USER FOREIGN KEY (user_id) REFERENCES USERS(user_id) ON DELETE CASCADE
-);</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>user_name</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1578,28 +1413,6 @@
     </r>
     <rPh sb="4" eb="5">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザーを表す一意な名前</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -2457,60 +2270,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を許可しない</t>
-    </r>
-    <rPh sb="12" eb="14">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ユーザー名のNULLを許可しない</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -2535,23 +2294,95 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ユーザーIDの重複を許可しない</t>
+    <t>email</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メール</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーを識別する一意な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>となる。パスワードと紐づき、認証する</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザーを表す表示名</t>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
     <rPh sb="7" eb="9">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CREATE SEQUENCE USERS_Sequence
-START WITH 1
-INCREMENT BY 1
-NOCACHE
-NOCYCLE;
-CREATE TABLE USERS (
-    user_id NUMBER(4,0) PRIMARY KEY,
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CREATE TABLE USERS (
+    email VARCHAR2(100) PRIMARY KEY,
     user_name VARCHAR2(30) NOT NULL ,
     password VARCHAR2(64) NOT NULL CONSTRAINT CK_USER_PASSWORD CHECK (
         LENGTH(password) BETWEEN 8 AND 64
@@ -2565,6 +2396,206 @@
 );</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メール</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY (email) REFERENCES USERS (email)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE SEQUENCE TICKET_Sequence
+START WITH 1
+INCREMENT BY 1
+NOCACHE
+NOCYCLE;
+CREATE TABLE TICKET (
+    ticket_id NUMBER(9,0) PRIMARY KEY,
+    email VARCHAR2(100) NOT NULL,
+    title VARCHAR2(60) CONSTRAINT NN_TICKET_TITLE NOT NULL,
+    deadline DATE CONSTRAINT NN_TICKET_DEADLINE NOT NULL,
+    assigned_person VARCHAR2(10),
+    importance VARCHAR2(2) NOT NULL CONSTRAINT CK_TICKET_IMPORTANCE CHECK (importance IN ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>低</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>')),
+    progress NUMBER(3,0) DEFAULT 0 NOT NULL CONSTRAINT CK_TICKET_PROGRESS CHECK (progress BETWEEN 0 AND 100),
+    category VARCHAR2(20),
+    CONSTRAINT FK_TICKET_USER FOREIGN KEY (email) REFERENCES USERS(email) ON DELETE CASCADE
+);</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ss23304007@ga.ttc.ac.jp</t>
+  </si>
+  <si>
+    <t>mt23304012@ga.ttc.ac.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ichiroutanaka@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser1@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser2@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Eメールの重複を許可しない</t>
+    <rPh sb="5" eb="7">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メールの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を許可しない</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser3@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser4@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuer5@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuer6@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser7@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -2573,7 +2604,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2824,6 +2855,26 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3082,7 +3133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3167,11 +3218,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3227,17 +3275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3251,6 +3288,17 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3262,6 +3310,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3532,34 +3590,34 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4"/>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="4"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="4"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11">
@@ -3614,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="10">
-        <v>45540</v>
+        <v>45559</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -3667,7 +3725,7 @@
   </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3696,20 +3754,20 @@
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="K4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
     </row>
     <row r="5" spans="2:16" ht="36.6" customHeight="1">
       <c r="B5" s="16">
@@ -3717,16 +3775,16 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
     </row>
     <row r="6" spans="2:16" ht="84.6" customHeight="1">
       <c r="B6" s="16">
@@ -3734,16 +3792,16 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="74"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="16">
@@ -3751,16 +3809,16 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="16">
@@ -3768,16 +3826,16 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="71"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="16">
@@ -3785,36 +3843,36 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1"/>
     <row r="13" spans="2:16" ht="33.75" customHeight="1"/>
@@ -3846,9 +3904,7 @@
   </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3866,41 +3922,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="13.2">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="13.2">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>12</v>
@@ -3913,17 +3969,17 @@
     </row>
     <row r="4" spans="1:11" ht="13.2">
       <c r="B4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11" ht="13.2">
       <c r="B5" s="30" t="s">
@@ -3936,52 +3992,52 @@
         <v>9</v>
       </c>
       <c r="E5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>32</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="85"/>
+      <c r="J5" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="90"/>
     </row>
     <row r="6" spans="1:11" ht="13.2">
       <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>37</v>
-      </c>
       <c r="I6" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="85"/>
+        <v>32</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:11" ht="13.2">
       <c r="B7" s="32">
@@ -3989,27 +4045,27 @@
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>19</v>
+        <v>173</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>171</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="94"/>
+        <v>32</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="13.2">
       <c r="B8" s="32">
@@ -4018,24 +4074,24 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="85"/>
+        <v>38</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" ht="13.2">
       <c r="B9" s="32">
@@ -4044,24 +4100,24 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="85"/>
+        <v>38</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="13.2">
       <c r="B10" s="32">
@@ -4070,20 +4126,20 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="85"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" ht="13.2">
       <c r="A11" s="11"/>
@@ -4093,24 +4149,24 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="90"/>
+        <v>32</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="35">
@@ -4119,24 +4175,24 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="92"/>
+        <v>57</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="98"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="34">
@@ -4145,20 +4201,20 @@
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="37"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="16" spans="1:11" ht="13.2">
       <c r="B16" s="11" t="s">
@@ -4166,166 +4222,166 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.2">
-      <c r="B17" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
+      <c r="B17" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
     </row>
     <row r="29" spans="2:13" ht="84.6" customHeight="1">
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1">
       <c r="B31" s="42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C31" s="36" t="str">
         <f>F6</f>
@@ -4333,7 +4389,7 @@
       </c>
       <c r="D31" s="36" t="str">
         <f>F7</f>
-        <v>ユーザーID</v>
+        <v>Eメール</v>
       </c>
       <c r="E31" s="36" t="str">
         <f>F8</f>
@@ -4361,24 +4417,24 @@
         <v>カテゴリー</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M31" s="43" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1">
       <c r="B32" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C32" s="44">
         <v>1</v>
       </c>
-      <c r="D32" s="36">
-        <v>1</v>
+      <c r="D32" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F32" s="45">
         <v>45544</v>
@@ -4388,37 +4444,37 @@
         <v>2024-09-10</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J32" s="36">
         <v>100</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L32" s="46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M32" s="43" t="str">
-        <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, " &amp; D32 &amp; ", '" &amp; E32 &amp; "', TO_DATE('" &amp; TEXT(G32, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H32), "NULL", "'" &amp; H32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I32), "NULL", "'" &amp; I32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J32), "NULL", J32) &amp; ", " &amp; IF(ISBLANK(K32), "NULL", "'" &amp; K32 &amp; "'") &amp; ");"</f>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, '議題のチェックリスト作成', TO_DATE('2024-09-10', 'YYYY-MM-DD'), '齋藤', '低', 100, '文章作成');</v>
+        <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, '" &amp; D32 &amp; "', '" &amp; E32 &amp; "', TO_DATE('" &amp; TEXT(G32, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H32), "NULL", "'" &amp; H32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I32), "NULL", "'" &amp; I32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J32), "NULL", J32) &amp; ", " &amp; IF(ISBLANK(K32), "NULL", "'" &amp; K32 &amp; "'") &amp; ");"</f>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ss23304007@ga.ttc.ac.jp', '議題のチェックリスト作成', TO_DATE('2024-09-10', 'YYYY-MM-DD'), '齋藤', '低', 100, '文章作成');</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15.75" customHeight="1">
       <c r="B33" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" s="44">
         <v>2</v>
       </c>
-      <c r="D33" s="36">
-        <v>1</v>
+      <c r="D33" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F33" s="45">
         <v>45597</v>
@@ -4428,37 +4484,37 @@
         <v>2024-11-02</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J33" s="36">
         <v>50</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M33" s="43" t="str">
-        <f t="shared" ref="M33:M41" si="1" xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, " &amp; D33 &amp; ", '" &amp; E33 &amp; "', TO_DATE('" &amp; TEXT(G33, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H33), "NULL", "'" &amp; H33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I33), "NULL", "'" &amp; I33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J33), "NULL", J33) &amp; ", " &amp; IF(ISBLANK(K33), "NULL", "'" &amp; K33 &amp; "'") &amp; ");"</f>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, 'ミーティングの議題整理', TO_DATE('2024-11-02', 'YYYY-MM-DD'), '田久保', '中', 50, '会議準備');</v>
+        <f t="shared" ref="M33:M41" si="1" xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, '" &amp; D33 &amp; "', '" &amp; E33 &amp; "', TO_DATE('" &amp; TEXT(G33, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H33), "NULL", "'" &amp; H33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I33), "NULL", "'" &amp; I33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J33), "NULL", J33) &amp; ", " &amp; IF(ISBLANK(K33), "NULL", "'" &amp; K33 &amp; "'") &amp; ");"</f>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ss23304007@ga.ttc.ac.jp', 'ミーティングの議題整理', TO_DATE('2024-11-02', 'YYYY-MM-DD'), '田久保', '中', 50, '会議準備');</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" customHeight="1">
       <c r="B34" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C34" s="44">
         <v>3</v>
       </c>
-      <c r="D34" s="36">
-        <v>1</v>
+      <c r="D34" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F34" s="45">
         <v>45689</v>
@@ -4468,37 +4524,37 @@
         <v>2025-02-02</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J34" s="36">
         <v>0</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L34" s="42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M34" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, 'プロジェクトの提案書の作成（担当者再アサインの可能性あり。）', TO_DATE('2025-02-02', 'YYYY-MM-DD'), '田中', '高', 0, '顧客調査');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ss23304007@ga.ttc.ac.jp', 'プロジェクトの提案書の作成（担当者再アサインの可能性あり。）', TO_DATE('2025-02-02', 'YYYY-MM-DD'), '田中', '高', 0, '顧客調査');</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" customHeight="1">
       <c r="B35" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C35" s="44">
         <v>4</v>
       </c>
-      <c r="D35" s="46">
-        <v>1</v>
+      <c r="D35" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F35" s="45">
         <v>45603</v>
@@ -4508,35 +4564,35 @@
         <v>2024-11-08</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J35" s="46">
         <v>0</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L35" s="43"/>
       <c r="M35" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, '週次業務', TO_DATE('2024-11-08', 'YYYY-MM-DD'), '田久保', '中', 0, '定例業務');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ss23304007@ga.ttc.ac.jp', '週次業務', TO_DATE('2024-11-08', 'YYYY-MM-DD'), '田久保', '中', 0, '定例業務');</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15.75" customHeight="1">
       <c r="B36" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C36" s="44">
         <v>5</v>
       </c>
-      <c r="D36" s="46">
-        <v>1</v>
+      <c r="D36" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F36" s="45">
         <v>45603</v>
@@ -4546,35 +4602,35 @@
         <v>2024-11-08</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J36" s="46">
         <v>0</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L36" s="43"/>
       <c r="M36" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 1, '週次定例会議', TO_DATE('2024-11-08', 'YYYY-MM-DD'), 'メンバ', '中', 0, '会議');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ss23304007@ga.ttc.ac.jp', '週次定例会議', TO_DATE('2024-11-08', 'YYYY-MM-DD'), 'メンバ', '中', 0, '会議');</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" customHeight="1">
       <c r="B37" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C37" s="44">
         <v>6</v>
       </c>
-      <c r="D37" s="46">
-        <v>2</v>
+      <c r="D37" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F37" s="45">
         <v>45603</v>
@@ -4584,35 +4640,35 @@
         <v>2024-11-08</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J37" s="46">
         <v>0</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L37" s="43"/>
       <c r="M37" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 2, '週次定例会議', TO_DATE('2024-11-08', 'YYYY-MM-DD'), 'メンバ', '中', 0, '会議');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'mt23304012@ga.ttc.ac.jp', '週次定例会議', TO_DATE('2024-11-08', 'YYYY-MM-DD'), 'メンバ', '中', 0, '会議');</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" customHeight="1">
       <c r="B38" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C38" s="44">
         <v>7</v>
       </c>
-      <c r="D38" s="46">
-        <v>2</v>
+      <c r="D38" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F38" s="45">
         <v>45604</v>
@@ -4622,35 +4678,35 @@
         <v>2024-11-09</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J38" s="46">
         <v>0</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L38" s="43"/>
       <c r="M38" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 2, 'Unit Test', TO_DATE('2024-11-09', 'YYYY-MM-DD'), '齋藤', '高', 0, 'テスト');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'mt23304012@ga.ttc.ac.jp', 'Unit Test', TO_DATE('2024-11-09', 'YYYY-MM-DD'), '齋藤', '高', 0, 'テスト');</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" customHeight="1">
       <c r="B39" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C39" s="44">
         <v>8</v>
       </c>
-      <c r="D39" s="46">
-        <v>2</v>
+      <c r="D39" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F39" s="49">
         <v>46296</v>
@@ -4661,32 +4717,32 @@
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J39" s="46">
         <v>0</v>
       </c>
       <c r="K39" s="43"/>
       <c r="L39" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M39" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 2, 'システム調査', TO_DATE('2026-10-02', 'YYYY-MM-DD'), NULL, '低', 0, NULL);</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'mt23304012@ga.ttc.ac.jp', 'システム調査', TO_DATE('2026-10-02', 'YYYY-MM-DD'), NULL, '低', 0, NULL);</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" customHeight="1">
       <c r="B40" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" s="44">
         <v>9</v>
       </c>
-      <c r="D40" s="46">
-        <v>3</v>
+      <c r="D40" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F40" s="49">
         <v>45566</v>
@@ -4696,10 +4752,10 @@
         <v>2024-10-02</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J40" s="46">
         <v>50</v>
@@ -4708,21 +4764,21 @@
       <c r="L40" s="43"/>
       <c r="M40" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 3, '夕飯のおつかい', TO_DATE('2024-10-02', 'YYYY-MM-DD'), 'パパ', '低', 50, NULL);</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ichiroutanaka@hoge.jp', '夕飯のおつかい', TO_DATE('2024-10-02', 'YYYY-MM-DD'), 'パパ', '低', 50, NULL);</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" customHeight="1">
       <c r="B41" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C41" s="44">
         <v>10</v>
       </c>
-      <c r="D41" s="46">
-        <v>3</v>
+      <c r="D41" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F41" s="49">
         <v>45567</v>
@@ -4732,35 +4788,35 @@
         <v>2024-10-03</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J41" s="46">
         <v>0</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L41" s="43"/>
       <c r="M41" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 3, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, 'ichiroutanaka@hoge.jp', 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" customHeight="1">
       <c r="B42" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="46">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F42" s="49">
         <v>45567</v>
@@ -4770,35 +4826,35 @@
         <v>2024-10-03</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J42" s="46">
         <v>0</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L42" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M42" s="50" t="str">
-        <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C42&amp;", " &amp; IF(ISBLANK(D42), "NULL", D42) &amp; ", '" &amp; IF(ISBLANK(E42), "NULL", E42) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G42), "NULL", G42) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H42), "NULL", H42) &amp; "', '" &amp; IF(ISBLANK(I42), "NULL", I42) &amp; "', " &amp; IF(ISBLANK(J42), "NULL", J42) &amp; ", '" &amp; IF(ISBLANK(K42), "NULL", K42) &amp; "');"</f>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (null, 3, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+        <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C42&amp;", '" &amp; IF(ISBLANK(D42), "NULL", D42) &amp; "', '" &amp; IF(ISBLANK(E42), "NULL", E42) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G42), "NULL", G42) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H42), "NULL", H42) &amp; "', '" &amp; IF(ISBLANK(I42), "NULL", I42) &amp; "', " &amp; IF(ISBLANK(J42), "NULL", J42) &amp; ", '" &amp; IF(ISBLANK(K42), "NULL", K42) &amp; "');"</f>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (null, 'ichiroutanaka@hoge.jp', 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="15.75" customHeight="1">
       <c r="B43" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C43" s="46">
         <v>11</v>
       </c>
       <c r="D43" s="46"/>
       <c r="E43" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F43" s="49">
         <v>45567</v>
@@ -4808,37 +4864,37 @@
         <v>2024-10-03</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J43" s="46">
         <v>0</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M43" s="50" t="str">
-        <f t="shared" ref="M43:M47" si="2" xml:space="preserve"> "INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C43&amp;", " &amp; IF(ISBLANK(D43), "NULL", D43) &amp; ", '" &amp; IF(ISBLANK(E43), "NULL", E43) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G43), "NULL", G43) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H43), "NULL", H43) &amp; "', '" &amp; IF(ISBLANK(I43), "NULL", I43) &amp; "', " &amp; IF(ISBLANK(J43), "NULL", J43) &amp; ", '" &amp; IF(ISBLANK(K43), "NULL", K43) &amp; "');"</f>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (11, NULL, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+        <f t="shared" ref="M43:M47" si="2" xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C43&amp;", '" &amp; IF(ISBLANK(D43), "NULL", D43) &amp; "', '" &amp; IF(ISBLANK(E43), "NULL", E43) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G43), "NULL", G43) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H43), "NULL", H43) &amp; "', '" &amp; IF(ISBLANK(I43), "NULL", I43) &amp; "', " &amp; IF(ISBLANK(J43), "NULL", J43) &amp; ", '" &amp; IF(ISBLANK(K43), "NULL", K43) &amp; "');"</f>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (11, 'NULL', 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" customHeight="1">
       <c r="B44" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C44" s="36">
         <v>12</v>
       </c>
-      <c r="D44" s="36">
-        <v>1</v>
+      <c r="D44" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F44" s="45">
         <v>45689</v>
@@ -4848,37 +4904,37 @@
         <v>2025-02-02</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J44" s="36">
         <v>0</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L44" s="42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="M44" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (12, 1, 'プロジェクトの提案書の作成（担当者再アサインの可能性あります）', TO_DATE('2025-02-02', 'YYYY-MM-DD'), '田中', '高', 0, '顧客調査');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (12, 'ss23304007@ga.ttc.ac.jp', 'プロジェクトの提案書の作成（担当者再アサインの可能性あります）', TO_DATE('2025-02-02', 'YYYY-MM-DD'), '田中', '高', 0, '顧客調査');</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="15.75" customHeight="1">
       <c r="B45" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C45" s="46">
         <v>13</v>
       </c>
-      <c r="D45" s="46">
-        <v>1</v>
+      <c r="D45" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F45" s="49">
         <v>45567</v>
@@ -4888,37 +4944,37 @@
         <v>2024-10-03</v>
       </c>
       <c r="H45" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I45" s="42" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J45" s="46">
         <v>0</v>
       </c>
       <c r="K45" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M45" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (13, 1, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', 'LOW', 0, '家事');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (13, 'ss23304007@ga.ttc.ac.jp', 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', 'LOW', 0, '家事');</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="15.75" customHeight="1">
       <c r="B46" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C46" s="46">
         <v>14</v>
       </c>
-      <c r="D46" s="46">
-        <v>1</v>
+      <c r="D46" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F46" s="49">
         <v>45567</v>
@@ -4928,35 +4984,35 @@
         <v>2024-10-03</v>
       </c>
       <c r="H46" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I46" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J46" s="46"/>
       <c r="K46" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L46" s="42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="M46" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (14, 1, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', NULL, '家事');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (14, 'ss23304007@ga.ttc.ac.jp', 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', NULL, '家事');</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15.75" customHeight="1">
       <c r="B47" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C47" s="46">
         <v>1</v>
       </c>
-      <c r="D47" s="46">
-        <v>1</v>
+      <c r="D47" s="109" t="s">
+        <v>176</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F47" s="49">
         <v>45567</v>
@@ -4966,33 +5022,27 @@
         <v>2024-10-03</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J47" s="46">
         <v>0</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L47" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M47" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO ticket (ticket_id, user_id, title, deadline, assigned_person, importance, progress, category) VALUES (1, 1, 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
+        <v>INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (1, 'ss23304007@ga.ttc.ac.jp', 'ゴミ出し', TO_DATE('2024-10-03', 'YYYY-MM-DD'), 'ママ', '低', 0, '家事');</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -5000,6 +5050,12 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5015,8 +5071,8 @@
   </sheetPr>
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5035,41 +5091,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="13.2">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:12" ht="13.2">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>12</v>
@@ -5082,19 +5138,19 @@
     </row>
     <row r="4" spans="1:12" ht="13.2">
       <c r="B4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="B5" s="27" t="s">
@@ -5107,52 +5163,52 @@
         <v>9</v>
       </c>
       <c r="E5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="97"/>
+      <c r="J5" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="13.2">
       <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>19</v>
+        <v>167</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>171</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="85"/>
+        <v>32</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="13.2">
       <c r="B7" s="20">
@@ -5161,19 +5217,19 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>170</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="41"/>
@@ -5181,75 +5237,75 @@
     </row>
     <row r="8" spans="1:12" ht="103.8" customHeight="1">
       <c r="B8" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="106"/>
+        <v>32</v>
+      </c>
+      <c r="J8" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="103"/>
     </row>
     <row r="9" spans="1:12" ht="13.2">
       <c r="B9" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="97"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:12" ht="13.2">
       <c r="B10" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="97"/>
+        <v>32</v>
+      </c>
+      <c r="J10" s="100"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="11"/>
@@ -5272,173 +5328,173 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="13.2">
-      <c r="B17" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
+      <c r="B17" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
     </row>
     <row r="29" spans="2:11" ht="107.4" customHeight="1">
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>F6</f>
-        <v>ユーザーID</v>
+        <v>Eメール</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E32" s="51" t="str">
         <f>F7</f>
@@ -5453,319 +5509,319 @@
         <v>古いパスワード</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1">
       <c r="B33" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="52">
-        <v>1</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>142</v>
+        <v>87</v>
+      </c>
+      <c r="C33" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="13" t="str">
-        <f t="shared" ref="J33:J36" si="0">"INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '" &amp; D33 &amp; "', '" &amp; E33 &amp; "', " &amp; IF(F33="", "NULL", "'" &amp; F33 &amp; "'") &amp; ", '" &amp; G33 &amp; "');"</f>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '齋藤 創己', 'Abc12345&amp;!', 'NewAbc123!', '思い出');</v>
+        <f>"INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('" &amp; C33 &amp;"', '" &amp; D33 &amp; "', '" &amp; E33 &amp; "', " &amp; IF(F33="", "NULL", "'" &amp; F33 &amp; "'") &amp; ", '" &amp; G33 &amp; "');"</f>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('ss23304007@ga.ttc.ac.jp', '齋藤 創己', 'Abc12345&amp;!', 'NewAbc123!', '思い出');</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1">
       <c r="B34" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="54">
-        <v>2</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>148</v>
+        <v>87</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '田久保 雅也', 'Xy7890&amp;@', 'Xy8901@&amp;', '未来の夢');</v>
+        <f t="shared" ref="J34:J36" si="0">"INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('" &amp; C34 &amp;"', '" &amp; D34 &amp; "', '" &amp; E34 &amp; "', " &amp; IF(F34="", "NULL", "'" &amp; F34 &amp; "'") &amp; ", '" &amp; G34 &amp; "');"</f>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('mt23304012@ga.ttc.ac.jp', '田久保 雅也', 'Xy7890&amp;@', 'Xy8901@&amp;', '未来の夢');</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1">
       <c r="B35" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="54">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, '田中 一郎', 'StrongP@ssw0rd1', 'WeakP@ssw0rd1', '家族');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('ichiroutanaka@hoge.jp', '田中 一郎', 'StrongP@ssw0rd1', 'WeakP@ssw0rd1', '家族');</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1">
       <c r="B36" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="56">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="C36" s="111" t="s">
+        <v>179</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I36" s="43"/>
       <c r="J36" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (users_sequence.NEXTVAL, 'Test User', 'TestUser123!', NULL, 'テスト');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuser1@hoge.jp', 'Test User', 'TestUser123!', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1">
       <c r="B37" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="43">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="C37" s="111" t="s">
+        <v>180</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="J37" s="57" t="str">
-        <f>"INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES ("&amp;C37&amp;", '" &amp; D37 &amp; "', '" &amp; E37 &amp; "', " &amp; IF(F37="", "NULL", "'" &amp; F37 &amp; "'") &amp; ", '" &amp; G37 &amp; "');"</f>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (5, 'Error User1', 'password123', NULL, 'テスト');</v>
+        <v>153</v>
+      </c>
+      <c r="J37" s="54" t="str">
+        <f>"INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('"&amp;C37&amp;"', '" &amp; D37 &amp; "', '" &amp; E37 &amp; "', " &amp; IF(F37="", "NULL", "'" &amp; F37 &amp; "'") &amp; ", '" &amp; G37 &amp; "');"</f>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuser2@hoge.jp', 'Error User1', 'password123', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15.75" customHeight="1">
       <c r="B38" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="43">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="C38" s="111" t="s">
+        <v>183</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H38" s="43"/>
       <c r="I38" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="J38" s="57" t="str">
-        <f t="shared" ref="J38:J44" si="1">"INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES ("&amp;C38&amp;", '" &amp; D38 &amp; "', '" &amp; E38 &amp; "', " &amp; IF(F38="", "NULL", "'" &amp; F38 &amp; "'") &amp; ", '" &amp; G38 &amp; "');"</f>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (6, 'Error User2', 'AAAAaaaa1111!', NULL, 'テスト');</v>
+        <v>156</v>
+      </c>
+      <c r="J38" s="54" t="str">
+        <f t="shared" ref="J38:J44" si="1">"INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('"&amp;C38&amp;"', '" &amp; D38 &amp; "', '" &amp; E38 &amp; "', " &amp; IF(F38="", "NULL", "'" &amp; F38 &amp; "'") &amp; ", '" &amp; G38 &amp; "');"</f>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuser3@hoge.jp', 'Error User2', 'AAAAaaaa1111!', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1">
       <c r="B39" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="36">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="C39" s="111" t="s">
+        <v>184</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H39" s="43"/>
       <c r="I39" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="J39" s="57" t="str">
+        <v>159</v>
+      </c>
+      <c r="J39" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (7, 'Error User3', 'Short1!', NULL, 'テスト');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuser4@hoge.jp', 'Error User3', 'Short1!', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.75" customHeight="1">
       <c r="B40" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="36">
-        <v>8</v>
+        <v>123</v>
+      </c>
+      <c r="C40" s="111" t="s">
+        <v>185</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="58">
+        <v>160</v>
+      </c>
+      <c r="E40" s="55">
         <v>12345678</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="J40" s="57" t="str">
+        <v>161</v>
+      </c>
+      <c r="J40" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (8, 'Error User4', '12345678', NULL, 'テスト');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuer5@hoge.jp', 'Error User4', '12345678', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.75" customHeight="1">
       <c r="B41" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="36"/>
+        <v>123</v>
+      </c>
+      <c r="C41" s="111"/>
       <c r="D41" s="36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="59" t="s">
-        <v>171</v>
+        <v>114</v>
+      </c>
+      <c r="H41" s="56" t="s">
+        <v>182</v>
       </c>
       <c r="I41" s="43"/>
-      <c r="J41" s="57" t="str">
+      <c r="J41" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (, 'Error User5', 'ErrorUser123!', NULL, 'テスト');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('', 'Error User5', 'ErrorUser123!', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1">
       <c r="B42" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="36">
-        <v>9</v>
+        <v>123</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>186</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I42" s="43"/>
-      <c r="J42" s="57" t="str">
+      <c r="J42" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (9, '', 'ErrorUser123!', NULL, 'テスト');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuer6@hoge.jp', '', 'ErrorUser123!', NULL, 'テスト');</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1">
       <c r="B43" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="36">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="C43" s="111" t="s">
+        <v>187</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="43"/>
       <c r="H43" s="42" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I43" s="43"/>
-      <c r="J43" s="57" t="str">
+      <c r="J43" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (10, 'Error User6', 'ErrorUser123!', NULL, '');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuser7@hoge.jp', 'Error User6', 'ErrorUser123!', NULL, '');</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1">
       <c r="B44" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="36">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C44" s="111" t="s">
+        <v>179</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="43"/>
       <c r="H44" s="42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I44" s="43"/>
-      <c r="J44" s="57" t="str">
+      <c r="J44" s="54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO users (user_id, user_name, password, old_password, secret_word) VALUES (1, 'Error User6', 'ErrorUser123!', NULL, '');</v>
+        <v>INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('testuser1@hoge.jp', 'Error User6', 'ErrorUser123!', NULL, '');</v>
       </c>
     </row>
   </sheetData>
@@ -5786,9 +5842,16 @@
     <hyperlink ref="F34" r:id="rId2" xr:uid="{4293EC08-7CDF-4F4D-8572-D6B94C9744C5}"/>
     <hyperlink ref="E35" r:id="rId3" xr:uid="{6FFFC594-71AE-48DF-A2C8-FC5AA6FD5994}"/>
     <hyperlink ref="E34" r:id="rId4" xr:uid="{76E907E3-662B-4597-90AA-B1D20C952B43}"/>
+    <hyperlink ref="C37" r:id="rId5" xr:uid="{0898502B-B231-4324-8505-82361DEAE38E}"/>
+    <hyperlink ref="C38" r:id="rId6" xr:uid="{5667AF43-BB0A-4CBD-9F66-E97FE846CDDE}"/>
+    <hyperlink ref="C39" r:id="rId7" xr:uid="{430B35FF-8F27-4D11-A007-A6E4F29AD41B}"/>
+    <hyperlink ref="C40" r:id="rId8" xr:uid="{7E030756-0B1E-4889-9D2C-7DA6204ABB5D}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{58D42C6E-B1C8-4522-9C6D-C00F22335FD1}"/>
+    <hyperlink ref="C43" r:id="rId10" xr:uid="{DA7ECF63-052E-4C73-BDD3-6991845F01CC}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{BF7C156D-F525-4DC3-BFE0-3C56E36538F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/docs/【C班】テーブル定義書.xlsx
+++ b/docs/【C班】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DEC9F5-F6EC-43E3-9133-AB9B79A89E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29171736-9F04-443A-B49E-AD55754D0A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -646,10 +646,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>VARCHAR2(2)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>progress</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -2417,6 +2413,103 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>ss23304007@ga.ttc.ac.jp</t>
+  </si>
+  <si>
+    <t>mt23304012@ga.ttc.ac.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ichiroutanaka@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser1@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser2@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Eメールの重複を許可しない</t>
+    <rPh sb="5" eb="7">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メールの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を許可しない</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser3@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser4@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuer5@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuer6@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testuser7@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <r>
       <t>CREATE SEQUENCE TICKET_Sequence
 START WITH 1
@@ -2428,8 +2521,50 @@
     email VARCHAR2(100) NOT NULL,
     title VARCHAR2(60) CONSTRAINT NN_TICKET_TITLE NOT NULL,
     deadline DATE CONSTRAINT NN_TICKET_DEADLINE NOT NULL,
-    assigned_person VARCHAR2(10),
-    importance VARCHAR2(2) NOT NULL CONSTRAINT CK_TICKET_IMPORTANCE CHECK (importance IN ('</t>
+    assigned_person VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>),
+    importance VARCHAR2(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>) NOT NULL CONSTRAINT CK_TICKET_IMPORTANCE CHECK (importance IN ('</t>
     </r>
     <r>
       <rPr>
@@ -2501,99 +2636,6 @@
     CONSTRAINT FK_TICKET_USER FOREIGN KEY (email) REFERENCES USERS(email) ON DELETE CASCADE
 );</t>
     </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ss23304007@ga.ttc.ac.jp</t>
-  </si>
-  <si>
-    <t>mt23304012@ga.ttc.ac.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ichiroutanaka@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuser1@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuser2@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Eメールの重複を許可しない</t>
-    <rPh sb="5" eb="7">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メールの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を許可しない</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuser3@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuser4@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuer5@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuer6@hoge.jp</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testuser7@hoge.jp</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2604,7 +2646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2875,6 +2917,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3225,6 +3274,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3301,6 +3357,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3310,16 +3369,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3541,7 +3590,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3590,34 +3639,34 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4"/>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="4"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="4"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11">
@@ -3754,20 +3803,20 @@
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="K4" s="66" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="K4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
     </row>
     <row r="5" spans="2:16" ht="36.6" customHeight="1">
       <c r="B5" s="16">
@@ -3775,16 +3824,16 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
     </row>
     <row r="6" spans="2:16" ht="84.6" customHeight="1">
       <c r="B6" s="16">
@@ -3792,16 +3841,16 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="16">
@@ -3809,16 +3858,16 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="16">
@@ -3826,16 +3875,16 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="71"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="16">
@@ -3843,36 +3892,36 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="71"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="71"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1"/>
     <row r="13" spans="2:16" ht="33.75" customHeight="1"/>
@@ -3904,7 +3953,9 @@
   </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3922,12 +3973,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="13.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
@@ -3948,10 +3999,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
@@ -3971,15 +4022,15 @@
       <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:11" ht="13.2">
       <c r="B5" s="30" t="s">
@@ -4006,10 +4057,10 @@
       <c r="I5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="90"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="13.2">
       <c r="B6" s="32">
@@ -4034,10 +4085,10 @@
       <c r="I6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="90"/>
+      <c r="J6" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="13.2">
       <c r="B7" s="32">
@@ -4048,24 +4099,24 @@
         <v>32</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>168</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="82"/>
+      <c r="J7" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:11" ht="13.2">
       <c r="B8" s="32">
@@ -4088,10 +4139,10 @@
       <c r="I8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="90"/>
+      <c r="J8" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="97"/>
     </row>
     <row r="9" spans="1:11" ht="13.2">
       <c r="B9" s="32">
@@ -4103,21 +4154,21 @@
         <v>39</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="90"/>
+      <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:11" ht="13.2">
       <c r="B10" s="32">
@@ -4129,17 +4180,17 @@
         <v>41</v>
       </c>
       <c r="F10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="32" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="32" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="90"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:11" ht="13.2">
       <c r="A11" s="11"/>
@@ -4152,21 +4203,21 @@
         <v>43</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="96"/>
+      <c r="J11" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="103"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="35">
@@ -4175,24 +4226,24 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="I12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="98"/>
+      <c r="J12" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="34">
@@ -4201,20 +4252,20 @@
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="37"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="13.2">
       <c r="B16" s="11" t="s">
@@ -4222,166 +4273,166 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.2">
-      <c r="B17" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
+      <c r="B17" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
     </row>
     <row r="29" spans="2:13" ht="84.6" customHeight="1">
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1">
       <c r="B31" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="36" t="str">
         <f>F6</f>
@@ -4417,24 +4468,24 @@
         <v>カテゴリー</v>
       </c>
       <c r="L31" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="43" t="s">
         <v>85</v>
-      </c>
-      <c r="M31" s="43" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1">
       <c r="B32" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="44">
         <v>1</v>
       </c>
-      <c r="D32" s="109" t="s">
-        <v>176</v>
+      <c r="D32" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="45">
         <v>45544</v>
@@ -4444,19 +4495,19 @@
         <v>2024-09-10</v>
       </c>
       <c r="H32" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>90</v>
       </c>
       <c r="J32" s="36">
         <v>100</v>
       </c>
       <c r="K32" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="L32" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="M32" s="43" t="str">
         <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, '" &amp; D32 &amp; "', '" &amp; E32 &amp; "', TO_DATE('" &amp; TEXT(G32, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H32), "NULL", "'" &amp; H32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I32), "NULL", "'" &amp; I32 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J32), "NULL", J32) &amp; ", " &amp; IF(ISBLANK(K32), "NULL", "'" &amp; K32 &amp; "'") &amp; ");"</f>
@@ -4465,16 +4516,16 @@
     </row>
     <row r="33" spans="2:13" ht="15.75" customHeight="1">
       <c r="B33" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="44">
         <v>2</v>
       </c>
-      <c r="D33" s="109" t="s">
-        <v>176</v>
+      <c r="D33" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="45">
         <v>45597</v>
@@ -4484,19 +4535,19 @@
         <v>2024-11-02</v>
       </c>
       <c r="H33" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>94</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>95</v>
       </c>
       <c r="J33" s="36">
         <v>50</v>
       </c>
       <c r="K33" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="L33" s="42" t="s">
-        <v>97</v>
       </c>
       <c r="M33" s="43" t="str">
         <f t="shared" ref="M33:M41" si="1" xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES (ticket_sequence.NEXTVAL, '" &amp; D33 &amp; "', '" &amp; E33 &amp; "', TO_DATE('" &amp; TEXT(G33, "yyyy-mm-dd") &amp; "', 'YYYY-MM-DD'), " &amp; IF(ISBLANK(H33), "NULL", "'" &amp; H33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(I33), "NULL", "'" &amp; I33 &amp; "'") &amp; ", " &amp; IF(ISBLANK(J33), "NULL", J33) &amp; ", " &amp; IF(ISBLANK(K33), "NULL", "'" &amp; K33 &amp; "'") &amp; ");"</f>
@@ -4505,16 +4556,16 @@
     </row>
     <row r="34" spans="2:13" ht="15.75" customHeight="1">
       <c r="B34" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="44">
         <v>3</v>
       </c>
-      <c r="D34" s="109" t="s">
-        <v>176</v>
+      <c r="D34" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="45">
         <v>45689</v>
@@ -4524,19 +4575,19 @@
         <v>2025-02-02</v>
       </c>
       <c r="H34" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="36" t="s">
         <v>99</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="J34" s="36">
         <v>0</v>
       </c>
       <c r="K34" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="42" t="s">
         <v>101</v>
-      </c>
-      <c r="L34" s="42" t="s">
-        <v>102</v>
       </c>
       <c r="M34" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4545,16 +4596,16 @@
     </row>
     <row r="35" spans="2:13" ht="15.75" customHeight="1">
       <c r="B35" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="44">
         <v>4</v>
       </c>
-      <c r="D35" s="109" t="s">
-        <v>176</v>
+      <c r="D35" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="45">
         <v>45603</v>
@@ -4564,16 +4615,16 @@
         <v>2024-11-08</v>
       </c>
       <c r="H35" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="42" t="s">
         <v>104</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>105</v>
       </c>
       <c r="J35" s="46">
         <v>0</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L35" s="43"/>
       <c r="M35" s="43" t="str">
@@ -4583,16 +4634,16 @@
     </row>
     <row r="36" spans="2:13" ht="15.75" customHeight="1">
       <c r="B36" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="44">
         <v>5</v>
       </c>
-      <c r="D36" s="109" t="s">
-        <v>176</v>
+      <c r="D36" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="45">
         <v>45603</v>
@@ -4602,16 +4653,16 @@
         <v>2024-11-08</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" s="46">
         <v>0</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" s="43"/>
       <c r="M36" s="43" t="str">
@@ -4621,16 +4672,16 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" customHeight="1">
       <c r="B37" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="44">
         <v>6</v>
       </c>
-      <c r="D37" s="110" t="s">
-        <v>177</v>
+      <c r="D37" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="45">
         <v>45603</v>
@@ -4640,16 +4691,16 @@
         <v>2024-11-08</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J37" s="46">
         <v>0</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L37" s="43"/>
       <c r="M37" s="43" t="str">
@@ -4659,16 +4710,16 @@
     </row>
     <row r="38" spans="2:13" ht="15.75" customHeight="1">
       <c r="B38" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="44">
         <v>7</v>
       </c>
-      <c r="D38" s="110" t="s">
-        <v>177</v>
+      <c r="D38" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="45">
         <v>45604</v>
@@ -4678,16 +4729,16 @@
         <v>2024-11-09</v>
       </c>
       <c r="H38" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="42" t="s">
         <v>112</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>113</v>
       </c>
       <c r="J38" s="46">
         <v>0</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L38" s="43"/>
       <c r="M38" s="43" t="str">
@@ -4697,16 +4748,16 @@
     </row>
     <row r="39" spans="2:13" ht="15.75" customHeight="1">
       <c r="B39" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="44">
         <v>8</v>
       </c>
-      <c r="D39" s="110" t="s">
-        <v>177</v>
+      <c r="D39" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="49">
         <v>46296</v>
@@ -4717,14 +4768,14 @@
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J39" s="46">
         <v>0</v>
       </c>
       <c r="K39" s="43"/>
       <c r="L39" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M39" s="43" t="str">
         <f t="shared" si="1"/>
@@ -4733,16 +4784,16 @@
     </row>
     <row r="40" spans="2:13" ht="15.75" customHeight="1">
       <c r="B40" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="44">
         <v>9</v>
       </c>
-      <c r="D40" s="110" t="s">
-        <v>178</v>
+      <c r="D40" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" s="49">
         <v>45566</v>
@@ -4752,10 +4803,10 @@
         <v>2024-10-02</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J40" s="46">
         <v>50</v>
@@ -4769,16 +4820,16 @@
     </row>
     <row r="41" spans="2:13" ht="15.75" customHeight="1">
       <c r="B41" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="44">
         <v>10</v>
       </c>
-      <c r="D41" s="110" t="s">
-        <v>178</v>
+      <c r="D41" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="49">
         <v>45567</v>
@@ -4788,16 +4839,16 @@
         <v>2024-10-03</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J41" s="46">
         <v>0</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L41" s="43"/>
       <c r="M41" s="43" t="str">
@@ -4807,16 +4858,16 @@
     </row>
     <row r="42" spans="2:13" ht="15.75" customHeight="1">
       <c r="B42" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="110" t="s">
-        <v>178</v>
+      <c r="D42" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="49">
         <v>45567</v>
@@ -4826,19 +4877,19 @@
         <v>2024-10-03</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J42" s="46">
         <v>0</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L42" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M42" s="50" t="str">
         <f xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C42&amp;", '" &amp; IF(ISBLANK(D42), "NULL", D42) &amp; "', '" &amp; IF(ISBLANK(E42), "NULL", E42) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G42), "NULL", G42) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H42), "NULL", H42) &amp; "', '" &amp; IF(ISBLANK(I42), "NULL", I42) &amp; "', " &amp; IF(ISBLANK(J42), "NULL", J42) &amp; ", '" &amp; IF(ISBLANK(K42), "NULL", K42) &amp; "');"</f>
@@ -4847,14 +4898,14 @@
     </row>
     <row r="43" spans="2:13" ht="15.75" customHeight="1">
       <c r="B43" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="46">
         <v>11</v>
       </c>
       <c r="D43" s="46"/>
       <c r="E43" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="49">
         <v>45567</v>
@@ -4864,19 +4915,19 @@
         <v>2024-10-03</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="46">
         <v>0</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M43" s="50" t="str">
         <f t="shared" ref="M43:M47" si="2" xml:space="preserve"> "INSERT INTO ticket (ticket_id, email, title, deadline, assigned_person, importance, progress, category) VALUES ("&amp;C43&amp;", '" &amp; IF(ISBLANK(D43), "NULL", D43) &amp; "', '" &amp; IF(ISBLANK(E43), "NULL", E43) &amp; "', TO_DATE('" &amp; IF(ISBLANK(G43), "NULL", G43) &amp; "', 'YYYY-MM-DD'), '" &amp; IF(ISBLANK(H43), "NULL", H43) &amp; "', '" &amp; IF(ISBLANK(I43), "NULL", I43) &amp; "', " &amp; IF(ISBLANK(J43), "NULL", J43) &amp; ", '" &amp; IF(ISBLANK(K43), "NULL", K43) &amp; "');"</f>
@@ -4885,16 +4936,16 @@
     </row>
     <row r="44" spans="2:13" ht="15.75" customHeight="1">
       <c r="B44" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="36">
         <v>12</v>
       </c>
-      <c r="D44" s="109" t="s">
-        <v>176</v>
+      <c r="D44" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="45">
         <v>45689</v>
@@ -4904,19 +4955,19 @@
         <v>2025-02-02</v>
       </c>
       <c r="H44" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="36" t="s">
         <v>99</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="J44" s="36">
         <v>0</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L44" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M44" s="50" t="str">
         <f t="shared" si="2"/>
@@ -4925,16 +4976,16 @@
     </row>
     <row r="45" spans="2:13" ht="15.75" customHeight="1">
       <c r="B45" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="46">
         <v>13</v>
       </c>
-      <c r="D45" s="109" t="s">
-        <v>176</v>
+      <c r="D45" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F45" s="49">
         <v>45567</v>
@@ -4944,19 +4995,19 @@
         <v>2024-10-03</v>
       </c>
       <c r="H45" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I45" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J45" s="46">
         <v>0</v>
       </c>
       <c r="K45" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M45" s="50" t="str">
         <f t="shared" si="2"/>
@@ -4965,16 +5016,16 @@
     </row>
     <row r="46" spans="2:13" ht="15.75" customHeight="1">
       <c r="B46" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="46">
         <v>14</v>
       </c>
-      <c r="D46" s="109" t="s">
-        <v>176</v>
+      <c r="D46" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="49">
         <v>45567</v>
@@ -4984,17 +5035,17 @@
         <v>2024-10-03</v>
       </c>
       <c r="H46" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I46" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J46" s="46"/>
       <c r="K46" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L46" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M46" s="50" t="str">
         <f t="shared" si="2"/>
@@ -5003,16 +5054,16 @@
     </row>
     <row r="47" spans="2:13" ht="15.75" customHeight="1">
       <c r="B47" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="46">
         <v>1</v>
       </c>
-      <c r="D47" s="109" t="s">
-        <v>176</v>
+      <c r="D47" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="49">
         <v>45567</v>
@@ -5022,19 +5073,19 @@
         <v>2024-10-03</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J47" s="46">
         <v>0</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L47" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M47" s="50" t="str">
         <f t="shared" si="2"/>
@@ -5071,7 +5122,7 @@
   </sheetPr>
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J33" sqref="J33:J44"/>
     </sheetView>
   </sheetViews>
@@ -5091,12 +5142,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="13.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
@@ -5117,15 +5168,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>12</v>
@@ -5140,17 +5191,17 @@
       <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
+      <c r="C4" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="B5" s="27" t="s">
@@ -5177,38 +5228,38 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="13.2">
       <c r="B6" s="20">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="G6" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="107" t="s">
-        <v>171</v>
+      <c r="H6" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="90"/>
+      <c r="J6" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:12" ht="13.2">
       <c r="B7" s="20">
@@ -5217,16 +5268,16 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>82</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>38</v>
@@ -5242,24 +5293,24 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="H8" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="103"/>
+      <c r="J8" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="13.2">
       <c r="B9" s="20">
@@ -5268,20 +5319,20 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="85"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="10" spans="1:12" ht="13.2">
       <c r="B10" s="20">
@@ -5290,22 +5341,22 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="H10" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="85"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="92"/>
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="11"/>
@@ -5328,8 +5379,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="13.2">
-      <c r="B17" s="93" t="s">
-        <v>172</v>
+      <c r="B17" s="100" t="s">
+        <v>171</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -5487,14 +5538,14 @@
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>F6</f>
         <v>Eメール</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="51" t="str">
         <f>F7</f>
@@ -5509,33 +5560,33 @@
         <v>古いパスワード</v>
       </c>
       <c r="H32" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1">
       <c r="B33" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="109" t="s">
-        <v>176</v>
+        <v>86</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>174</v>
       </c>
       <c r="D33" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="F33" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>137</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -5546,22 +5597,22 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1">
       <c r="B34" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="110" t="s">
-        <v>177</v>
+        <v>86</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="D34" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="F34" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="G34" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -5572,22 +5623,22 @@
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1">
       <c r="B35" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="110" t="s">
-        <v>178</v>
+        <v>86</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>176</v>
       </c>
       <c r="D35" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="F35" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="G35" s="36" t="s">
         <v>145</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>146</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
@@ -5598,23 +5649,23 @@
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1">
       <c r="B36" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>179</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="D36" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>147</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>148</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I36" s="43"/>
       <c r="J36" s="13" t="str">
@@ -5624,26 +5675,26 @@
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1">
       <c r="B37" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>180</v>
+        <v>122</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>178</v>
       </c>
       <c r="D37" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="36" t="s">
         <v>150</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>151</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" s="36" t="s">
         <v>152</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>153</v>
       </c>
       <c r="J37" s="54" t="str">
         <f>"INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('"&amp;C37&amp;"', '" &amp; D37 &amp; "', '" &amp; E37 &amp; "', " &amp; IF(F37="", "NULL", "'" &amp; F37 &amp; "'") &amp; ", '" &amp; G37 &amp; "');"</f>
@@ -5652,24 +5703,24 @@
     </row>
     <row r="38" spans="2:10" ht="15.75" customHeight="1">
       <c r="B38" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>183</v>
+        <v>122</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>181</v>
       </c>
       <c r="D38" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>154</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>155</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="43"/>
       <c r="I38" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J38" s="54" t="str">
         <f t="shared" ref="J38:J44" si="1">"INSERT INTO users (email, user_name, password, old_password, secret_word) VALUES ('"&amp;C38&amp;"', '" &amp; D38 &amp; "', '" &amp; E38 &amp; "', " &amp; IF(F38="", "NULL", "'" &amp; F38 &amp; "'") &amp; ", '" &amp; G38 &amp; "');"</f>
@@ -5678,24 +5729,24 @@
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1">
       <c r="B39" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>184</v>
+        <v>122</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>182</v>
       </c>
       <c r="D39" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>158</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="43"/>
       <c r="I39" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J39" s="54" t="str">
         <f t="shared" si="1"/>
@@ -5704,24 +5755,24 @@
     </row>
     <row r="40" spans="2:10" ht="15.75" customHeight="1">
       <c r="B40" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>185</v>
+        <v>122</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>183</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="55">
         <v>12345678</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" s="54" t="str">
         <f t="shared" si="1"/>
@@ -5730,21 +5781,21 @@
     </row>
     <row r="41" spans="2:10" ht="15.75" customHeight="1">
       <c r="B41" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="111"/>
+        <v>122</v>
+      </c>
+      <c r="C41" s="63"/>
       <c r="D41" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="42" t="s">
         <v>162</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>163</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I41" s="43"/>
       <c r="J41" s="54" t="str">
@@ -5754,21 +5805,21 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1">
       <c r="B42" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>186</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>184</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I42" s="43"/>
       <c r="J42" s="54" t="str">
@@ -5778,21 +5829,21 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1">
       <c r="B43" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>185</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="43"/>
       <c r="H43" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="43"/>
       <c r="J43" s="54" t="str">
@@ -5802,21 +5853,21 @@
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1">
       <c r="B44" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>179</v>
+        <v>122</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="43"/>
       <c r="H44" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I44" s="43"/>
       <c r="J44" s="54" t="str">

--- a/docs/【C班】テーブル定義書.xlsx
+++ b/docs/【C班】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29171736-9F04-443A-B49E-AD55754D0A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3D288A-DCEE-4E78-B49D-E827BFF09B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -3331,6 +3331,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3344,17 +3355,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3953,7 +3953,7 @@
   </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -3973,12 +3973,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="13.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
@@ -3999,10 +3999,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.2">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
@@ -4022,15 +4022,15 @@
       <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="13.2">
       <c r="B5" s="30" t="s">
@@ -4057,10 +4057,10 @@
       <c r="I5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="97"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" ht="13.2">
       <c r="B6" s="32">
@@ -4085,10 +4085,10 @@
       <c r="I6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="97"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" ht="13.2">
       <c r="B7" s="32">
@@ -4113,10 +4113,10 @@
       <c r="I7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="89"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:11" ht="13.2">
       <c r="B8" s="32">
@@ -4139,10 +4139,10 @@
       <c r="I8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="97"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" ht="13.2">
       <c r="B9" s="32">
@@ -4165,10 +4165,10 @@
       <c r="I9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="97"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" ht="13.2">
       <c r="B10" s="32">
@@ -4189,8 +4189,8 @@
         <v>186</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="97"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" ht="13.2">
       <c r="A11" s="11"/>
@@ -4214,10 +4214,10 @@
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="35">
@@ -4240,10 +4240,10 @@
       <c r="I12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="105"/>
+      <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="34">
@@ -4264,8 +4264,8 @@
         <v>42</v>
       </c>
       <c r="I13" s="37"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="16" spans="1:11" ht="13.2">
       <c r="B16" s="11" t="s">
@@ -4273,162 +4273,162 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.2">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
     </row>
     <row r="29" spans="2:13" ht="84.6" customHeight="1">
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1">
       <c r="B31" s="42" t="s">
@@ -5094,6 +5094,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -5101,12 +5107,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5122,8 +5122,8 @@
   </sheetPr>
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5142,12 +5142,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="13.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
@@ -5168,10 +5168,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="23" t="s">
         <v>77</v>
       </c>
@@ -5194,14 +5194,14 @@
       <c r="C4" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="92"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="B5" s="27" t="s">
@@ -5231,7 +5231,7 @@
       <c r="J5" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="92"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:12" ht="13.2">
       <c r="B6" s="20">
@@ -5256,10 +5256,10 @@
       <c r="I6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="97"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="13.2">
       <c r="B7" s="20">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="106"/>
-      <c r="K9" s="92"/>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="13.2">
       <c r="B10" s="20">
@@ -5356,7 +5356,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="107"/>
-      <c r="K10" s="92"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="11"/>
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="13.2">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="91" t="s">
         <v>171</v>
       </c>
       <c r="C17" s="108"/>

--- a/docs/【C班】テーブル定義書.xlsx
+++ b/docs/【C班】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\24AkiC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DEC9F5-F6EC-43E3-9133-AB9B79A89E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917A504-B2EF-4080-8837-F99F729142D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="189">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -2594,6 +2594,10 @@
   </si>
   <si>
     <t>testuser7@hoge.jp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ss23304007@ga.ttc.ac.jp</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -3225,6 +3229,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3275,6 +3286,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3288,19 +3310,11 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3310,16 +3324,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3541,7 +3545,7 @@
   </sheetPr>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3590,34 +3594,34 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4"/>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="4"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="4"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11">
@@ -3754,20 +3758,20 @@
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="K4" s="66" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="K4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
     </row>
     <row r="5" spans="2:16" ht="36.6" customHeight="1">
       <c r="B5" s="16">
@@ -3775,16 +3779,16 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
     </row>
     <row r="6" spans="2:16" ht="84.6" customHeight="1">
       <c r="B6" s="16">
@@ -3792,16 +3796,16 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="71"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
     </row>
     <row r="7" spans="2:16" ht="33.75" customHeight="1">
       <c r="B7" s="16">
@@ -3809,16 +3813,16 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="71"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
     </row>
     <row r="8" spans="2:16" ht="33.75" customHeight="1">
       <c r="B8" s="16">
@@ -3826,16 +3830,16 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="71"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
     </row>
     <row r="9" spans="2:16" ht="33.75" customHeight="1">
       <c r="B9" s="16">
@@ -3843,36 +3847,36 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="71"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
     </row>
     <row r="10" spans="2:16" ht="33.75" customHeight="1">
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="71"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="2:16" ht="33.75" customHeight="1">
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="81"/>
     </row>
     <row r="12" spans="2:16" ht="33.75" customHeight="1"/>
     <row r="13" spans="2:16" ht="33.75" customHeight="1"/>
@@ -3904,7 +3908,9 @@
   </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3922,12 +3928,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="13.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
@@ -3948,10 +3954,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
@@ -3971,15 +3977,15 @@
       <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="13.2">
       <c r="B5" s="30" t="s">
@@ -4006,10 +4012,10 @@
       <c r="I5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="90"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:11" ht="13.2">
       <c r="B6" s="32">
@@ -4034,10 +4040,10 @@
       <c r="I6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="90"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:11" ht="13.2">
       <c r="B7" s="32">
@@ -4053,7 +4059,7 @@
       <c r="F7" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="58" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="39" t="s">
@@ -4062,10 +4068,10 @@
       <c r="I7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:11" ht="13.2">
       <c r="B8" s="32">
@@ -4088,10 +4094,10 @@
       <c r="I8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="90"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="9" spans="1:11" ht="13.2">
       <c r="B9" s="32">
@@ -4114,10 +4120,10 @@
       <c r="I9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="90"/>
+      <c r="K9" s="89"/>
     </row>
     <row r="10" spans="1:11" ht="13.2">
       <c r="B10" s="32">
@@ -4138,8 +4144,8 @@
         <v>42</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" ht="13.2">
       <c r="A11" s="11"/>
@@ -4163,10 +4169,10 @@
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="96"/>
+      <c r="K11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="35">
@@ -4189,10 +4195,10 @@
       <c r="I12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="98"/>
+      <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="34">
@@ -4213,8 +4219,8 @@
         <v>42</v>
       </c>
       <c r="I13" s="37"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
     </row>
     <row r="16" spans="1:11" ht="13.2">
       <c r="B16" s="11" t="s">
@@ -4222,162 +4228,162 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.2">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
     </row>
     <row r="29" spans="2:13" ht="84.6" customHeight="1">
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1">
       <c r="B31" s="42" t="s">
@@ -4430,7 +4436,7 @@
       <c r="C32" s="44">
         <v>1</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E32" s="36" t="s">
@@ -4470,7 +4476,7 @@
       <c r="C33" s="44">
         <v>2</v>
       </c>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E33" s="36" t="s">
@@ -4510,7 +4516,7 @@
       <c r="C34" s="44">
         <v>3</v>
       </c>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E34" s="42" t="s">
@@ -4550,7 +4556,7 @@
       <c r="C35" s="44">
         <v>4</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E35" s="42" t="s">
@@ -4588,7 +4594,7 @@
       <c r="C36" s="44">
         <v>5</v>
       </c>
-      <c r="D36" s="109" t="s">
+      <c r="D36" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E36" s="42" t="s">
@@ -4626,7 +4632,7 @@
       <c r="C37" s="44">
         <v>6</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="62" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="42" t="s">
@@ -4664,7 +4670,7 @@
       <c r="C38" s="44">
         <v>7</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="62" t="s">
         <v>177</v>
       </c>
       <c r="E38" s="47" t="s">
@@ -4702,7 +4708,7 @@
       <c r="C39" s="44">
         <v>8</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="62" t="s">
         <v>177</v>
       </c>
       <c r="E39" s="42" t="s">
@@ -4738,7 +4744,7 @@
       <c r="C40" s="44">
         <v>9</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="62" t="s">
         <v>178</v>
       </c>
       <c r="E40" s="42" t="s">
@@ -4774,7 +4780,7 @@
       <c r="C41" s="44">
         <v>10</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="62" t="s">
         <v>178</v>
       </c>
       <c r="E41" s="42" t="s">
@@ -4812,7 +4818,7 @@
       <c r="C42" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="62" t="s">
         <v>178</v>
       </c>
       <c r="E42" s="42" t="s">
@@ -4890,7 +4896,7 @@
       <c r="C44" s="36">
         <v>12</v>
       </c>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E44" s="42" t="s">
@@ -4930,7 +4936,7 @@
       <c r="C45" s="46">
         <v>13</v>
       </c>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E45" s="42" t="s">
@@ -4970,7 +4976,7 @@
       <c r="C46" s="46">
         <v>14</v>
       </c>
-      <c r="D46" s="109" t="s">
+      <c r="D46" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E46" s="42" t="s">
@@ -5008,7 +5014,7 @@
       <c r="C47" s="46">
         <v>1</v>
       </c>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="61" t="s">
         <v>176</v>
       </c>
       <c r="E47" s="42" t="s">
@@ -5043,6 +5049,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -5050,12 +5062,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5071,8 +5077,8 @@
   </sheetPr>
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5091,12 +5097,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="13.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
@@ -5117,10 +5123,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="23" t="s">
         <v>78</v>
       </c>
@@ -5140,17 +5146,17 @@
       <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="B5" s="27" t="s">
@@ -5177,10 +5183,10 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="85"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="1:12" ht="13.2">
       <c r="B6" s="20">
@@ -5193,22 +5199,22 @@
       <c r="E6" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="60" t="s">
         <v>171</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="90"/>
+      <c r="K6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="13.2">
       <c r="B7" s="20">
@@ -5222,7 +5228,7 @@
       <c r="F7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="59" t="s">
         <v>170</v>
       </c>
       <c r="H7" s="39" t="s">
@@ -5256,10 +5262,10 @@
       <c r="I8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="103"/>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:12" ht="13.2">
       <c r="B9" s="20">
@@ -5280,8 +5286,8 @@
         <v>63</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="85"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="1:12" ht="13.2">
       <c r="B10" s="20">
@@ -5304,8 +5310,8 @@
       <c r="I10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="85"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="11"/>
@@ -5328,7 +5334,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="13.2">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="91" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="108"/>
@@ -5522,8 +5528,8 @@
       <c r="B33" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="109" t="s">
-        <v>176</v>
+      <c r="C33" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="D33" s="52" t="s">
         <v>135</v>
@@ -5548,7 +5554,7 @@
       <c r="B34" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="62" t="s">
         <v>177</v>
       </c>
       <c r="D34" s="52" t="s">
@@ -5574,7 +5580,7 @@
       <c r="B35" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="62" t="s">
         <v>178</v>
       </c>
       <c r="D35" s="42" t="s">
@@ -5600,7 +5606,7 @@
       <c r="B36" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="63" t="s">
         <v>179</v>
       </c>
       <c r="D36" s="43" t="s">
@@ -5626,7 +5632,7 @@
       <c r="B37" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="111" t="s">
+      <c r="C37" s="63" t="s">
         <v>180</v>
       </c>
       <c r="D37" s="43" t="s">
@@ -5654,7 +5660,7 @@
       <c r="B38" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="111" t="s">
+      <c r="C38" s="63" t="s">
         <v>183</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -5680,7 +5686,7 @@
       <c r="B39" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="111" t="s">
+      <c r="C39" s="63" t="s">
         <v>184</v>
       </c>
       <c r="D39" s="43" t="s">
@@ -5706,7 +5712,7 @@
       <c r="B40" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="63" t="s">
         <v>185</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -5732,7 +5738,7 @@
       <c r="B41" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="111"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="36" t="s">
         <v>162</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="B42" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="111" t="s">
+      <c r="C42" s="63" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="36"/>
@@ -5780,7 +5786,7 @@
       <c r="B43" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="111" t="s">
+      <c r="C43" s="63" t="s">
         <v>187</v>
       </c>
       <c r="D43" s="36" t="s">
@@ -5804,7 +5810,7 @@
       <c r="B44" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="63" t="s">
         <v>179</v>
       </c>
       <c r="D44" s="36" t="s">
